--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>Usuario</t>
   </si>
@@ -265,6 +265,45 @@
   </si>
   <si>
     <t>Notificacion</t>
+  </si>
+  <si>
+    <t>Menbresia</t>
+  </si>
+  <si>
+    <t>Codigo Mebresia</t>
+  </si>
+  <si>
+    <t>Membresia</t>
+  </si>
+  <si>
+    <t>Gratis</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Codigo Costos</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>10$</t>
+  </si>
+  <si>
+    <t>20$</t>
+  </si>
+  <si>
+    <t>55$</t>
   </si>
 </sst>
 </file>
@@ -384,15 +423,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -404,8 +445,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +726,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,518 +758,576 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="4"/>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="4"/>
+      <c r="I6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="L6" s="1" t="s">
+      <c r="J6" s="4"/>
+      <c r="L6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="3"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="7">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="7">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="7">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="7">
+      <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="7">
+      <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="3"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="7">
+      <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="L13" s="8" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="L13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="7">
+      <c r="C14" s="1">
         <v>7</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="7">
+      <c r="C15" s="1">
         <v>8</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="P18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="F20" s="1" t="s">
+      <c r="D20" s="4"/>
+      <c r="F20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="I20" s="1" t="s">
+      <c r="G20" s="4"/>
+      <c r="I20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="L20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="O20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="L21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C22" s="7">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="7">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="1">
         <v>2</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="7">
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O24" s="1">
+        <v>3</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="7">
+      <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="1">
         <v>4</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="1">
         <v>4</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="L25" s="1">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="J27" s="1" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="J27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="3"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="2" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="J27:M27"/>
+  <mergeCells count="16">
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C3:Q3"/>
@@ -1231,6 +1337,12 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="F13:I13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
